--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C4D7E-C1CA-0340-81DB-9DA87C47E17B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1929C-AF2C-1A45-986E-B471EF923A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -56,9 +56,6 @@
     <t>Isa</t>
   </si>
   <si>
-    <t>1 prima, 4 decouvertes</t>
-  </si>
-  <si>
     <t>Danny</t>
   </si>
   <si>
@@ -132,6 +129,9 @@
   </si>
   <si>
     <t>1 prima, 1 antico, 5 SanMarco</t>
+  </si>
+  <si>
+    <t>1 prima, 4 decouvertes, 4 packs 6</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,18 +517,18 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
       <c r="D3" s="1">
         <v>31</v>
@@ -536,10 +536,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -550,10 +550,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -561,25 +561,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
@@ -587,10 +587,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
         <v>18</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10" s="1">
         <v>14</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
       </c>
       <c r="D11" s="1">
         <v>24</v>
@@ -609,10 +609,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
       </c>
       <c r="D12" s="1">
         <v>18</v>
@@ -620,10 +620,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" s="1">
         <v>46</v>
@@ -634,10 +634,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
         <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
       </c>
       <c r="D14" s="1">
         <v>52</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
         <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>29</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
         <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>31</v>
       </c>
       <c r="D16" s="1">
         <v>51</v>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E1929C-AF2C-1A45-986E-B471EF923A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55E2868-590A-3C4D-9A77-7D8EC60961AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,7 +520,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55E2868-590A-3C4D-9A77-7D8EC60961AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF8D3D-F571-2946-A0F6-B1A51DB9074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Nom</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Danny</t>
   </si>
   <si>
-    <t>2 prima, 1 mix, 1 equilux 1 pumpkin</t>
-  </si>
-  <si>
     <t>Cat</t>
   </si>
   <si>
@@ -116,22 +113,31 @@
     <t>Paco</t>
   </si>
   <si>
-    <t>1 san marco, 1 antico, 5 SanMarco</t>
-  </si>
-  <si>
     <t>Benoit</t>
   </si>
   <si>
-    <t>1 equilux, 5 SanMarco</t>
-  </si>
-  <si>
     <t>Clem</t>
   </si>
   <si>
-    <t>1 prima, 1 antico, 5 SanMarco</t>
-  </si>
-  <si>
-    <t>1 prima, 4 decouvertes, 4 packs 6</t>
+    <t>1 prima, 4 decouvertes, 4 packs 6, 4</t>
+  </si>
+  <si>
+    <t>2 prima, 1 mix, 1 equilux, 1 pumpkin, 3 smarco, 2 ss, 1 chipmunk</t>
+  </si>
+  <si>
+    <t>1 san marco, 1 antico, 5 smarco</t>
+  </si>
+  <si>
+    <t>1 equilux, 5 smarco</t>
+  </si>
+  <si>
+    <t>Theo B</t>
+  </si>
+  <si>
+    <t>1 equilux, 1 antico</t>
+  </si>
+  <si>
+    <t>1 prima, 1 antico, 5 smarco</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,7 +523,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1">
         <v>78</v>
@@ -528,18 +534,18 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>10</v>
@@ -550,10 +556,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
       </c>
       <c r="D5" s="1">
         <v>8</v>
@@ -561,25 +567,25 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
         <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
       </c>
       <c r="D9" s="1">
         <v>40</v>
@@ -587,10 +593,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
       </c>
       <c r="D10" s="1">
         <v>14</v>
@@ -598,10 +604,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
         <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
       </c>
       <c r="D11" s="1">
         <v>24</v>
@@ -609,10 +615,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
         <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
       </c>
       <c r="D12" s="1">
         <v>18</v>
@@ -620,10 +626,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
       </c>
       <c r="D13" s="1">
         <v>46</v>
@@ -634,10 +640,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>52</v>
@@ -648,10 +654,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="1">
         <v>6</v>
@@ -659,12 +665,23 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D16" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1">
         <v>51</v>
       </c>
     </row>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EEF8D3D-F571-2946-A0F6-B1A51DB9074E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F21E3-BADF-954F-8E29-93EB9ED346AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Nom</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>1 prima, 1 antico, 5 smarco</t>
+  </si>
+  <si>
+    <t>OpenValue</t>
+  </si>
+  <si>
+    <t>8 + 16</t>
   </si>
 </sst>
 </file>
@@ -493,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC98B898-7ED1-EA43-80FD-DE7ABC346C2D}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -520,133 +526,130 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D2" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
-        <v>8</v>
+      <c r="E5" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="1">
-        <v>46</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D14" s="1">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -654,34 +657,48 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="1">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D18" s="1">
         <v>51</v>
       </c>
     </row>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F21E3-BADF-954F-8E29-93EB9ED346AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7294DC8-383C-874F-BB92-C377C7CF0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -502,7 +502,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -532,7 +532,7 @@
         <v>35</v>
       </c>
       <c r="D2" s="1">
-        <v>50</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -638,7 +638,7 @@
         <v>21</v>
       </c>
       <c r="D13" s="1">
-        <v>30</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/Footsteps/footsteps/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eliottlegendre/Documents/prive/code/footsteps/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7294DC8-383C-874F-BB92-C377C7CF0531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0C00DD-E905-2048-8E4F-CD5C76EF102F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15460" xr2:uid="{CBF956DE-54A9-734E-90A0-7EF75042D42E}"/>
   </bookViews>
@@ -203,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -243,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -349,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -491,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -502,7 +502,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -543,7 +543,7 @@
         <v>27</v>
       </c>
       <c r="D3" s="1">
-        <v>78</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
